--- a/TestScenarios.xlsx
+++ b/TestScenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\OpenCart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\TutorialsNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,9 @@
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
